--- a/numerical_results/time_results_comparison/simple_regret_unimodel_feature5_noisyFalse_total100_init800_repeat10.xlsx
+++ b/numerical_results/time_results_comparison/simple_regret_unimodel_feature5_noisyFalse_total100_init800_repeat10.xlsx
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01798849193788259</v>
+        <v>0.0053412196085039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02607188138919789</v>
+        <v>0.005207444706970102</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01520817394107311</v>
+        <v>0.003998127570877334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01853621059417945</v>
+        <v>0.005207444706970102</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0120629999432875</v>
+        <v>0.003823171200240069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01600592902088837</v>
+        <v>0.004322297647481818</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>0.011987790819204</v>
+        <v>0.003775434433387979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01350686571467432</v>
+        <v>0.004322297647481818</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01049956459726727</v>
+        <v>0.003336180476895643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0132683522646822</v>
+        <v>0.004322297647481818</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00962777111013477</v>
+        <v>0.002973253627319673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01088410931294519</v>
+        <v>0.003831288692846341</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008638228299835913</v>
+        <v>0.002973253627319673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01051736238247613</v>
+        <v>0.003831288692846341</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007610580628457694</v>
+        <v>0.002973253627319673</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01051736238247613</v>
+        <v>0.003041453774756613</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00693673601349881</v>
+        <v>0.001771254098074211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009692559279939065</v>
+        <v>0.003041453774756613</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00612154306091048</v>
+        <v>0.001771254098074211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009621262532049986</v>
+        <v>0.002877029776154233</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005916764656820891</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008897682649258654</v>
+        <v>0.002877029776154233</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="n">
-        <v>0.005916764656820891</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008757527489766232</v>
+        <v>0.002877029776154233</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>61</v>
       </c>
       <c r="B15" t="n">
-        <v>0.005711619735128513</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008757527489766232</v>
+        <v>0.002877029776154233</v>
       </c>
     </row>
     <row r="16">
@@ -605,10 +605,10 @@
         <v>66</v>
       </c>
       <c r="B16" t="n">
-        <v>0.005355817691739947</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008174448217317075</v>
+        <v>0.002877029776154233</v>
       </c>
     </row>
     <row r="17">
@@ -616,10 +616,10 @@
         <v>71</v>
       </c>
       <c r="B17" t="n">
-        <v>0.005203824284985899</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008174448217317075</v>
+        <v>0.002081717922677936</v>
       </c>
     </row>
     <row r="18">
@@ -627,10 +627,10 @@
         <v>76</v>
       </c>
       <c r="B18" t="n">
-        <v>0.005203824284985899</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008174448217317075</v>
+        <v>0.002081717922677936</v>
       </c>
     </row>
     <row r="19">
@@ -638,10 +638,10 @@
         <v>81</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005203824284985899</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008174448217317075</v>
+        <v>0.002081717922677936</v>
       </c>
     </row>
     <row r="20">
@@ -649,10 +649,10 @@
         <v>86</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005203824284985899</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008090245664086027</v>
+        <v>0.002081717922677936</v>
       </c>
     </row>
     <row r="21">
@@ -660,10 +660,10 @@
         <v>91</v>
       </c>
       <c r="B21" t="n">
-        <v>0.004918248345202724</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007558652663517999</v>
+        <v>0.002081717922677936</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>96</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004918248345202724</v>
+        <v>0.0008660522442845875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007510536487356152</v>
+        <v>0.002081717922677936</v>
       </c>
     </row>
     <row r="24">
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0.158736484403641</v>
+        <v>0.03745228453185626</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1680182353991309</v>
+        <v>0.04982156703991562</v>
       </c>
     </row>
     <row r="27">
@@ -717,10 +717,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1246304456693094</v>
+        <v>0.03679138249761001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1508776947199359</v>
+        <v>0.03893962233453465</v>
       </c>
     </row>
     <row r="28">
@@ -728,10 +728,10 @@
         <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1238740595712268</v>
+        <v>0.03679138249761001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1445016806912198</v>
+        <v>0.03893962233453465</v>
       </c>
     </row>
     <row r="29">
@@ -739,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1102311603140909</v>
+        <v>0.03679138249761001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1406711392682479</v>
+        <v>0.03893962233453465</v>
       </c>
     </row>
     <row r="30">
@@ -750,10 +750,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1090168531448573</v>
+        <v>0.0350698408087966</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1352642415925253</v>
+        <v>0.03893523065540307</v>
       </c>
     </row>
     <row r="31">
@@ -761,10 +761,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1083266385073458</v>
+        <v>0.0350698408087966</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1299943903178309</v>
+        <v>0.0367502903012194</v>
       </c>
     </row>
     <row r="32">
@@ -772,10 +772,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1068157743091102</v>
+        <v>0.03124076016564372</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1272409752493492</v>
+        <v>0.03414514851504245</v>
       </c>
     </row>
     <row r="33">
@@ -783,10 +783,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1068157743091102</v>
+        <v>0.03124076016564372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1157683406410241</v>
+        <v>0.03414514851504245</v>
       </c>
     </row>
     <row r="34">
@@ -794,10 +794,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1068157743091102</v>
+        <v>0.03124076016564372</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1130478096185723</v>
+        <v>0.03414514851504245</v>
       </c>
     </row>
     <row r="35">
@@ -805,10 +805,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1068157743091102</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C35" t="n">
-        <v>0.106060203919995</v>
+        <v>0.03021839044154188</v>
       </c>
     </row>
     <row r="36">
@@ -816,10 +816,10 @@
         <v>51</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1060175746013801</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C36" t="n">
-        <v>0.106060203919995</v>
+        <v>0.03021839044154188</v>
       </c>
     </row>
     <row r="37">
@@ -827,10 +827,10 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1004889425967401</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1012906036483412</v>
+        <v>0.03021839044154188</v>
       </c>
     </row>
     <row r="38">
@@ -838,10 +838,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09855091156323528</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0922322537965998</v>
+        <v>0.02805360597593926</v>
       </c>
     </row>
     <row r="39">
@@ -849,10 +849,10 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09645814529337431</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0922322537965998</v>
+        <v>0.02805360597593926</v>
       </c>
     </row>
     <row r="40">
@@ -860,10 +860,10 @@
         <v>71</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08946250325906728</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09077098188103852</v>
+        <v>0.02805360597593926</v>
       </c>
     </row>
     <row r="41">
@@ -871,10 +871,10 @@
         <v>76</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08946250325906728</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09077098188103852</v>
+        <v>0.02622409833818469</v>
       </c>
     </row>
     <row r="42">
@@ -882,10 +882,10 @@
         <v>81</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08946250325906728</v>
+        <v>0.02784601716417592</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09077098188103852</v>
+        <v>0.02622409833818469</v>
       </c>
     </row>
     <row r="43">
@@ -893,10 +893,10 @@
         <v>86</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08946250325906728</v>
+        <v>0.02668808693198017</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09077098188103852</v>
+        <v>0.02622409833818469</v>
       </c>
     </row>
     <row r="44">
@@ -904,10 +904,10 @@
         <v>91</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08946250325906728</v>
+        <v>0.02668808693198017</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08210070348530737</v>
+        <v>0.02622409833818469</v>
       </c>
     </row>
     <row r="45">
@@ -915,10 +915,10 @@
         <v>96</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08873816045718345</v>
+        <v>0.02668808693198017</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08210070348530737</v>
+        <v>0.02622409833818469</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07530862017546455</v>
+        <v>0.02436368628121217</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08955738727895053</v>
+        <v>0.02063518720947388</v>
       </c>
     </row>
     <row r="50">
@@ -961,10 +961,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06167796515640771</v>
+        <v>0.01774477715262094</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07752430901325906</v>
+        <v>0.02013619710550162</v>
       </c>
     </row>
     <row r="51">
@@ -972,10 +972,10 @@
         <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05450203989376932</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07170380282399222</v>
+        <v>0.0199213460193645</v>
       </c>
     </row>
     <row r="52">
@@ -983,10 +983,10 @@
         <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05450203989376932</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07164591988735522</v>
+        <v>0.01972884108005095</v>
       </c>
     </row>
     <row r="53">
@@ -994,10 +994,10 @@
         <v>21</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04700412570559977</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06591073588615502</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="54">
@@ -1005,10 +1005,10 @@
         <v>26</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04546128814493459</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06279349540505322</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="55">
@@ -1016,10 +1016,10 @@
         <v>31</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04316551781634799</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C55" t="n">
-        <v>0.05513389098979966</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="56">
@@ -1027,10 +1027,10 @@
         <v>36</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04316551781634799</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05513389098979966</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="57">
@@ -1038,10 +1038,10 @@
         <v>41</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04179583205896539</v>
+        <v>0.01509762656230472</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05490708071181413</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="58">
@@ -1049,10 +1049,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04179583205896539</v>
+        <v>0.01238412601190525</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0518136003504331</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="59">
@@ -1060,10 +1060,10 @@
         <v>51</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04179583205896539</v>
+        <v>0.01238412601190525</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0518136003504331</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="60">
@@ -1071,10 +1071,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0417237827406358</v>
+        <v>0.01238412601190525</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="61">
@@ -1082,10 +1082,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0417237827406358</v>
+        <v>0.01238412601190525</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01899566369640958</v>
       </c>
     </row>
     <row r="62">
@@ -1093,10 +1093,10 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03995654778801341</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01897131723566237</v>
       </c>
     </row>
     <row r="63">
@@ -1104,10 +1104,10 @@
         <v>71</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03984589963510193</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C63" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01814587178381016</v>
       </c>
     </row>
     <row r="64">
@@ -1115,10 +1115,10 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03984589963510193</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01814587178381016</v>
       </c>
     </row>
     <row r="65">
@@ -1126,10 +1126,10 @@
         <v>81</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03984589963510193</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C65" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01814587178381016</v>
       </c>
     </row>
     <row r="66">
@@ -1137,10 +1137,10 @@
         <v>86</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03984589963510193</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01814587178381016</v>
       </c>
     </row>
     <row r="67">
@@ -1148,10 +1148,10 @@
         <v>91</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03984589963510193</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01814587178381016</v>
       </c>
     </row>
     <row r="68">
@@ -1159,10 +1159,10 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03882413760708146</v>
+        <v>0.01153190226721592</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05069146174090307</v>
+        <v>0.01814587178381016</v>
       </c>
     </row>
   </sheetData>
